--- a/evaluation/Experiment.xlsx
+++ b/evaluation/Experiment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22125056_student_hcmus_edu_vn/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS419_FinalProject\Briefly\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CACB6D-BB7A-4EE8-95D8-9C83F5575930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD0FED-A445-46A4-8339-3421BC7000CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CD76697-D145-48DA-981D-B086528BC41B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Keyword</t>
   </si>
@@ -89,15 +89,26 @@
     <t>Solenoid</t>
   </si>
   <si>
-    <t>Original content length</t>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Original content length (word)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -125,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,17 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F82FAD6-31B9-4C11-A88A-EE83302C37D3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,6 +738,26 @@
       <c r="E14">
         <v>2165</v>
       </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <f>ROUND(AVERAGE(C2:C14),3)</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(D2:D14)</f>
+        <v>0.10379780432860564</v>
+      </c>
+      <c r="E15" s="1">
+        <f>ROUND(AVERAGE(E2:E14),0)</f>
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaluation/Experiment.xlsx
+++ b/evaluation/Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS419_FinalProject\Briefly\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD0FED-A445-46A4-8339-3421BC7000CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA3B50-1666-4AD8-AB20-D7EF7F2D63A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CD76697-D145-48DA-981D-B086528BC41B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Keyword</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Machine</t>
   </si>
   <si>
-    <t>Speed(s)</t>
-  </si>
-  <si>
     <t>Neuro-fuzzy</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>Original content length (word)</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
 </sst>
 </file>
@@ -473,21 +473,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F82FAD6-31B9-4C11-A88A-EE83302C37D3}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,35 +499,62 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <f>-1.33186995983123</f>
-        <v>-1.33186995983123</v>
+        <f>ROUND(-1.33186995983123,3)</f>
+        <v>-1.3320000000000001</v>
       </c>
       <c r="C2">
         <v>0.33300000000000002</v>
       </c>
       <c r="D2">
         <f xml:space="preserve"> EXP(B2)</f>
-        <v>0.26398316156222912</v>
+        <v>0.26394883537928682</v>
       </c>
       <c r="E2">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f xml:space="preserve"> ROUND(B2,3)</f>
+        <v>-1.3320000000000001</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(C2,3)</f>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="H2">
+        <f xml:space="preserve"> ROUND(D2,3)</f>
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="I2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -540,8 +571,23 @@
       <c r="E3">
         <v>3703</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="1" xml:space="preserve"> ROUND(B3,3)</f>
+        <v>-4.0759999999999996</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G14" si="2">ROUND(C3,3)</f>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="3" xml:space="preserve"> ROUND(D3,3)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I3">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -558,8 +604,23 @@
       <c r="E4">
         <v>3739</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>-3.7549999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="I4">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -576,8 +637,23 @@
       <c r="E5">
         <v>1333</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-2.2029999999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>0.111</v>
+      </c>
+      <c r="I5">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -594,10 +670,25 @@
       <c r="E6">
         <v>5039</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-3.746</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="I6">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>-1.17576026916503</v>
@@ -612,10 +703,25 @@
       <c r="E7">
         <v>945</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-1.1759999999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0.309</v>
+      </c>
+      <c r="I7">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>-2.27945685386657</v>
@@ -630,10 +736,25 @@
       <c r="E8">
         <v>1553</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-2.2789999999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="I8">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>-3.1439793109893799</v>
@@ -648,10 +769,25 @@
       <c r="E9">
         <v>10459</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-3.1440000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2.871</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I9">
+        <v>10459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>-3.4281008243560702</v>
@@ -666,10 +802,25 @@
       <c r="E10">
         <v>9159</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-3.4279999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2.9329999999999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I10">
+        <v>9159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>-4.2712111473083496</v>
@@ -684,10 +835,25 @@
       <c r="E11">
         <v>8187</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>-4.2709999999999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="I11">
+        <v>8187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>-1.0349980592727599</v>
@@ -702,10 +868,25 @@
       <c r="E12">
         <v>1975</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-1.0349999999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I12">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>-4.9318785667419398</v>
@@ -720,10 +901,25 @@
       <c r="E13">
         <v>8051</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>-4.9320000000000004</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2.61</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>-3.0367474555969198</v>
@@ -738,10 +934,29 @@
       <c r="E14">
         <v>2165</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>-3.0369999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.501</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I14">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="1">
+        <f>AVERAGE(B2:B14)</f>
+        <v>-2.9548956509370026</v>
       </c>
       <c r="C15" s="1">
         <f>ROUND(AVERAGE(C2:C14),3)</f>
@@ -749,14 +964,30 @@
       </c>
       <c r="D15" s="1">
         <f>AVERAGE(D2:D14)</f>
-        <v>0.10379780432860564</v>
+        <v>0.10379516385299468</v>
       </c>
       <c r="E15" s="1">
         <f>ROUND(AVERAGE(E2:E14),0)</f>
         <v>4411</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1">
+        <f>ROUND(AVERAGE(F2:F14),3)</f>
+        <v>-2.9550000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:I15" si="4">ROUND(AVERAGE(G2:G14),3)</f>
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.104</v>
+      </c>
+      <c r="I15" s="1">
+        <f>ROUND(AVERAGE(I2:I14),0)</f>
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
   </sheetData>
